--- a/invoice march w1_Mintesinot Gebre.xlsx
+++ b/invoice march w1_Mintesinot Gebre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minte\OneDrive\Documents\Maharishi MSD - Feb 2021\CS301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC98E578-76F5-4BA5-8176-386191CC8E37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD960E1-BB2C-4908-B27A-4BDB5130FB8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5DE23128-1582-45A7-8FAB-6A92B5B38709}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{5DE23128-1582-45A7-8FAB-6A92B5B38709}"/>
   </bookViews>
   <sheets>
     <sheet name="March 2 -5" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8402B112-317C-4A49-A684-D2146947BE2A}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C074135-5EB6-4096-9439-704AC73A6038}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -707,6 +707,9 @@
       <c r="A9" s="3">
         <v>44261</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -715,31 +718,49 @@
       <c r="A10" s="3">
         <v>44262</v>
       </c>
+      <c r="B10">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>44263</v>
       </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>44264</v>
       </c>
+      <c r="B12">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>44265</v>
       </c>
+      <c r="B13">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>44266</v>
       </c>
+      <c r="B14">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>44267</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -747,7 +768,7 @@
       </c>
       <c r="B16">
         <f>SUM(B9:B15)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -758,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -770,7 +791,7 @@
       </c>
       <c r="B18" s="1">
         <f>B16*B17</f>
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
